--- a/output/enhanced.xlsx
+++ b/output/enhanced.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,184 +631,950 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>560 Penstock Drive</t>
+          <t>1745 T Street Southeast</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Grass Valley</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95945</t>
+          <t>20020</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06057000502</t>
+          <t>11001007605</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6328</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4379</t>
+          <t>0.5317</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>45.4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>93.1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>40239</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6007 Applegate Lane</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40219</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21111011513</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>33.6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>92.4</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>78.4</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>59891</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>560 Penstock Drive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Grass Valley</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95945</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>06057000502</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>46.7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>35.6</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>10.4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35.6</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11.7</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>88.3</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>92.2</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>17.0</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>11.2</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>456</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>44863</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>5.6</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>0.057293727</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>5.34450672</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>338.69666990276</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>81.32</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>0.261942</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>150 Carter Street</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>06040</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09003515200</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>91.3</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>89.6</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>14.8</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>112112</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2721 Lindsay Avenue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40206</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>21111007602</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>96.1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>28.7</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>65.5</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>41525</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
